--- a/data/FB15k-237/inverse_stats_train.xlsx
+++ b/data/FB15k-237/inverse_stats_train.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shayansh/Documents/Workspace/Python/KGE_Pattern/data/FB15k-237/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98249C7-1DF8-E840-A9F2-D12908D1D35E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FBF18C-8E63-9B4D-A3B5-72B090FCFC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24100" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="24100" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>/award/award_nominee/award_nominations./award/award_nomination/award_nominee</t>
   </si>
@@ -442,7 +442,10 @@
     <t>/education/educational_degree/people_with_this_degree./education/education/institution</t>
   </si>
   <si>
-    <t>Number of occurances per inverse relation in the train set</t>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -847,7 +850,7 @@
   <dimension ref="A1:B141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -856,9 +859,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
